--- a/Report Creator/test_subjects/Marks Sheet A level/Marks A' level sheet GP.xlsx
+++ b/Report Creator/test_subjects/Marks Sheet A level/Marks A' level sheet GP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Senior Six" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t xml:space="preserve">Student ID</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">Paper 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid Paper 1</t>
   </si>
   <si>
     <t xml:space="preserve">Aiko Patrick</t>
@@ -157,11 +160,11 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.6"/>
@@ -180,34 +183,41 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>48</v>
       </c>
     </row>
@@ -216,12 +226,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>49</v>
       </c>
     </row>
@@ -230,30 +243,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="0" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="0" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
@@ -348,11 +365,11 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.39"/>
   </cols>
@@ -370,35 +387,42 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,13 +430,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,30 +447,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="0" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="0" t="n">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
